--- a/legislator/property/output/normal/林鴻池_2012-04-26_財產申報表_tmpdb4b1.xlsx
+++ b/legislator/property/output/normal/林鴻池_2012-04-26_財產申報表_tmpdb4b1.xlsx
@@ -18,9 +18,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="94">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="111">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣子寮小段00970094地號</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣子寮小段00960002地號</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣子寮小段00970001地號</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣子寮小段00970002地號</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣子寮小段00970099地號</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣子寮小段00970100地號</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣子寮小段00970107地號</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段20970000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段03810000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之996</t>
+  </si>
+  <si>
+    <t>10000分之222</t>
+  </si>
+  <si>
+    <t>10000分之377</t>
+  </si>
+  <si>
+    <t>10000分之143</t>
+  </si>
+  <si>
+    <t>10000分之155</t>
+  </si>
+  <si>
+    <t>景玉鳳</t>
+  </si>
+  <si>
+    <t>林鴻池</t>
+  </si>
+  <si>
+    <t>林〇廷</t>
+  </si>
+  <si>
+    <t>79年04月25日</t>
+  </si>
+  <si>
+    <t>87年10月23日</t>
+  </si>
+  <si>
+    <t>80年11月15曰</t>
+  </si>
+  <si>
+    <t>99年10月07日</t>
+  </si>
+  <si>
+    <t>99年09月17曰</t>
+  </si>
+  <si>
+    <t>貝買</t>
+  </si>
+  <si>
+    <t>(買賣(公設D</t>
+  </si>
+  <si>
+    <t>(買賣(公設W</t>
+  </si>
+  <si>
+    <t>(買賣(公設</t>
+  </si>
+  <si>
+    <t>(買賣(公設”</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-26</t>
+  </si>
+  <si>
+    <t>tmpdb4b1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,151 +185,58 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市新店區青潭段楣子寮小 段0097-0094地號</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣子寮小 段0096-0002地號</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣子寮小 段0097-0001地號</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣子寮小 段0097-0002地號</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣子寮小 段0097-0099地號</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣子寮小 段0097-0100地號</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣子寮小 段0097-0107地號</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段2097-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段 0381-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 996</t>
-  </si>
-  <si>
-    <t>10000分之 222</t>
-  </si>
-  <si>
-    <t>10000分之 377</t>
-  </si>
-  <si>
-    <t>10000分之 143</t>
-  </si>
-  <si>
-    <t>10000分之 155</t>
-  </si>
-  <si>
-    <t>景玉鳳</t>
-  </si>
-  <si>
-    <t>林鴻池</t>
-  </si>
-  <si>
-    <t>林〇廷</t>
-  </si>
-  <si>
-    <t>79年04月 25日</t>
-  </si>
-  <si>
-    <t>87年10月 23日</t>
-  </si>
-  <si>
-    <t>80年11月 15曰</t>
-  </si>
-  <si>
-    <t>99年10月 07日</t>
-  </si>
-  <si>
-    <t>99年09月 17曰</t>
-  </si>
-  <si>
-    <t>貝買</t>
-  </si>
-  <si>
-    <t>(買賣 (公設D</t>
-  </si>
-  <si>
-    <t>(買賣 (公設W</t>
-  </si>
-  <si>
-    <t>(買賣 (公設^</t>
-  </si>
-  <si>
-    <t>(買賣 (公設”</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣仔寮小 段00780-000建號(平台）</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03471 -000</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03443-000 建號(本件為停車位）</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段-小段 02607-000建號(陽台）</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段 02608-000建號(陽台）</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段 02640- 000建號(本件為停車位)</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03468-000 建號(陽台（本件3468建號為 板橋市海山段2097地號之地上 建物，取得價額已列於申報書第 二項不動產土地第10筆中合併 計價)）</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03480-000 建號(陽台（本件3480建號為 板橋市海山段2097地號之地上 建物，取得價額已列於申報書第 二項不動產土地第11筆合併計 價)）</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03443-000 建號(本件為地下層車位）</t>
-  </si>
-  <si>
-    <t>全部 .</t>
+    <t>新北市新店區青潭段楣仔寮小段00780000建號(平台）</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段03471000</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段03443000建號(本件為停車位）</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段小段02607000建號(陽台）</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段02608000建號(陽台）</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段02640000建號(本件為停車位)</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段03468000建號(陽台（本件3468建號為板橋市海山段2097地號之地上建物取得價額已列於申報書第二項不動產土地第10筆中合併計價)）</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段03480000建號(陽台（本件3480建號為板橋市海山段2097地號之地上建物取得價額已列於申報書第二項不動產土地第11筆合併計價)）</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段03443000建號(本件為地下層車位）</t>
+  </si>
+  <si>
+    <t>全部.</t>
   </si>
   <si>
     <t>24分之1</t>
   </si>
   <si>
-    <t>79年04月 25 H</t>
+    <t>79年04月25H</t>
   </si>
   <si>
     <t>84年12月</t>
   </si>
   <si>
-    <t>80年11月 18日</t>
-  </si>
-  <si>
-    <t>99年09月 17日</t>
+    <t>80年11月18日</t>
+  </si>
+  <si>
+    <t>99年09月17日</t>
   </si>
   <si>
     <t>拍賣</t>
   </si>
   <si>
-    <t>11，067,000(與 第10筆土地合 併計價）</t>
-  </si>
-  <si>
-    <t>8，350，000(與 第11筆土地合 併計價）</t>
+    <t>11067000(與第10筆土地合併計價）</t>
+  </si>
+  <si>
+    <t>8350000(與第11筆土地合併計價）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -200,7 +251,7 @@
     <t>國瑞國產客貨車</t>
   </si>
   <si>
-    <t>93年09月 01日</t>
+    <t>93年09月01日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -233,7 +284,7 @@
     <t>臺北縣板橋市農會</t>
   </si>
   <si>
-    <t>玉山商業銀行海山簡易型 分行</t>
+    <t>玉山商業銀行海山簡易型分行</t>
   </si>
   <si>
     <t>永豐商業銀行中崙分行</t>
@@ -251,7 +302,7 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>84，440</t>
+    <t>84440</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -278,7 +329,7 @@
     <t>南山好鑫動養老保險</t>
   </si>
   <si>
-    <t>新二十年期增值分紅養老 壽險</t>
+    <t>新二十年期增值分紅養老壽險</t>
   </si>
   <si>
     <t>南山全新增額養老壽險</t>
@@ -296,7 +347,7 @@
     <t>增額終身壽險（B型）</t>
   </si>
   <si>
-    <t>金彩3 0 6增額終身壽險</t>
+    <t>金彩306增額終身壽險</t>
   </si>
   <si>
     <t>被保險人有3人</t>
@@ -658,13 +709,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,291 +737,543 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1624</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>559</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="2">
         <v>17</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>275</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>1526</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>673</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>1526</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H11" s="2">
         <v>11067000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
         <v>1526</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H12" s="2">
         <v>8350000</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="2">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -988,25 +1291,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1014,25 +1317,25 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>253.52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1040,25 +1343,25 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>145.12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1066,25 +1369,25 @@
         <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2">
         <v>750.1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1092,25 +1395,25 @@
         <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2">
         <v>75.26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1118,25 +1421,25 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2">
         <v>84.58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1144,25 +1447,25 @@
         <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2">
         <v>522.84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1170,25 +1473,25 @@
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2">
         <v>112.04</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1196,25 +1499,25 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2">
         <v>88.8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1222,22 +1525,22 @@
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2">
         <v>750.1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H10" s="2">
         <v>1500000</v>
@@ -1258,22 +1561,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1281,22 +1584,22 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2">
         <v>2694</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1314,19 +1617,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1334,16 +1637,16 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>319</v>
@@ -1354,16 +1657,16 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>440807</v>
@@ -1374,16 +1677,16 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>45486</v>
@@ -1394,16 +1697,16 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2">
         <v>43557</v>
@@ -1414,16 +1717,16 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
         <v>7</v>
@@ -1434,19 +1737,19 @@
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1454,16 +1757,16 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
         <v>1160667</v>
@@ -1474,16 +1777,16 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
         <v>670956</v>
@@ -1494,16 +1797,16 @@
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
         <v>28891</v>
@@ -1514,16 +1817,16 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2">
         <v>2266</v>
@@ -1534,16 +1837,16 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2">
         <v>795</v>
@@ -1554,16 +1857,16 @@
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2">
         <v>1077</v>
@@ -1574,16 +1877,16 @@
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2">
         <v>66619</v>
@@ -1594,16 +1897,16 @@
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2">
         <v>2365754</v>
@@ -1614,16 +1917,16 @@
         <v>77</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2">
         <v>7500</v>
@@ -1634,16 +1937,16 @@
         <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2">
         <v>231081</v>
@@ -1664,16 +1967,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1681,13 +1984,13 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1696,13 +1999,13 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1711,13 +2014,13 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1726,13 +2029,13 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1741,13 +2044,13 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1756,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1771,13 +2074,13 @@
         <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1786,13 +2089,13 @@
         <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -1801,13 +2104,13 @@
         <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1816,16 +2119,16 @@
         <v>119</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林鴻池_2012-04-26_財產申報表_tmpdb4b1.xlsx
+++ b/legislator/property/output/normal/林鴻池_2012-04-26_財產申報表_tmpdb4b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市新店區青潭段楣子寮小段00970094地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市新店區青潭段楣子寮小段00960002地號</t>
@@ -89,103 +92,82 @@
     <t>臺北市大安區學府段一小段03810000地號</t>
   </si>
   <si>
+    <t>10000分之996</t>
+  </si>
+  <si>
+    <t>10000分之222</t>
+  </si>
+  <si>
+    <t>10000分之377</t>
+  </si>
+  <si>
+    <t>10000分之143</t>
+  </si>
+  <si>
+    <t>10000分之155</t>
+  </si>
+  <si>
+    <t>景玉鳳</t>
+  </si>
+  <si>
+    <t>林鴻池</t>
+  </si>
+  <si>
+    <t>林〇廷</t>
+  </si>
+  <si>
+    <t>79年04月25日</t>
+  </si>
+  <si>
+    <t>87年10月23日</t>
+  </si>
+  <si>
+    <t>80年11月15曰</t>
+  </si>
+  <si>
+    <t>99年10月07日</t>
+  </si>
+  <si>
+    <t>99年09月17曰</t>
+  </si>
+  <si>
+    <t>(買賣(公設D</t>
+  </si>
+  <si>
+    <t>(買賣(公設W</t>
+  </si>
+  <si>
+    <t>(買賣(公設</t>
+  </si>
+  <si>
+    <t>(買賣(公設”</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-26</t>
+  </si>
+  <si>
+    <t>tmpdb4b1</t>
+  </si>
+  <si>
+    <t>新北市新店區青潭段楣仔寮小段00780000建號(平台）</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之996</t>
-  </si>
-  <si>
-    <t>10000分之222</t>
-  </si>
-  <si>
-    <t>10000分之377</t>
-  </si>
-  <si>
-    <t>10000分之143</t>
-  </si>
-  <si>
-    <t>10000分之155</t>
-  </si>
-  <si>
-    <t>景玉鳳</t>
-  </si>
-  <si>
-    <t>林鴻池</t>
-  </si>
-  <si>
-    <t>林〇廷</t>
-  </si>
-  <si>
-    <t>79年04月25日</t>
-  </si>
-  <si>
-    <t>87年10月23日</t>
-  </si>
-  <si>
-    <t>80年11月15曰</t>
-  </si>
-  <si>
-    <t>99年10月07日</t>
-  </si>
-  <si>
-    <t>99年09月17曰</t>
-  </si>
-  <si>
-    <t>貝買</t>
-  </si>
-  <si>
-    <t>(買賣(公設D</t>
-  </si>
-  <si>
-    <t>(買賣(公設W</t>
-  </si>
-  <si>
-    <t>(買賣(公設</t>
-  </si>
-  <si>
-    <t>(買賣(公設”</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-26</t>
-  </si>
-  <si>
-    <t>tmpdb4b1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北市新店區青潭段楣仔寮小段00780000建號(平台）</t>
+    <t>79年04月25H</t>
   </si>
   <si>
     <t>新北市板橋區海山段03471000</t>
@@ -218,9 +200,6 @@
     <t>24分之1</t>
   </si>
   <si>
-    <t>79年04月25H</t>
-  </si>
-  <si>
     <t>84年12月</t>
   </si>
   <si>
@@ -239,36 +218,21 @@
     <t>8350000(與第11筆土地合併計價）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>國瑞國產客貨車</t>
   </si>
   <si>
     <t>93年09月01日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>彰化商業銀行</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>玉山商業銀行</t>
   </si>
   <si>
@@ -290,43 +254,25 @@
     <t>永豐商業銀行中崙分行</t>
   </si>
   <si>
-    <t>支票存款</t>
-  </si>
-  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
     <t>定期儲蓄存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>84440</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>南山好鑫動養老保險</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
     <t>全球人壽</t>
-  </si>
-  <si>
-    <t>南山好鑫動養老保險</t>
   </si>
   <si>
     <t>新二十年期增值分紅養老壽險</t>
@@ -709,13 +655,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,19 +704,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
@@ -782,16 +734,16 @@
         <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>30</v>
@@ -800,21 +752,27 @@
         <v>1340</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0996</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>13.6452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>137</v>
+        <v>1624</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -826,19 +784,19 @@
         <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>30</v>
@@ -847,21 +805,27 @@
         <v>1340</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0996</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>161.7504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1624</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -876,16 +840,16 @@
         <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>30</v>
@@ -894,21 +858,27 @@
         <v>1340</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0996</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.8884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>29</v>
+        <v>559</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
@@ -923,16 +893,16 @@
         <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>30</v>
@@ -941,21 +911,27 @@
         <v>1340</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0996</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>55.6764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>559</v>
+        <v>275</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
@@ -970,16 +946,16 @@
         <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>30</v>
@@ -988,21 +964,27 @@
         <v>1340</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0996</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>27.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>275</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
@@ -1014,19 +996,19 @@
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>30</v>
@@ -1035,45 +1017,51 @@
         <v>1340</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0996</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>13.2468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>133</v>
+        <v>1526</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>30</v>
@@ -1082,45 +1070,51 @@
         <v>1340</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0222</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>33.8772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>1526</v>
+        <v>673</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>30</v>
@@ -1129,45 +1123,51 @@
         <v>1340</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.0377</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>25.3721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="2">
-        <v>673</v>
+        <v>1526</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="2">
+        <v>11067000</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>30</v>
@@ -1176,45 +1176,51 @@
         <v>1340</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0143</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>21.8218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>1526</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="2">
-        <v>11067000</v>
+        <v>8350000</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>30</v>
@@ -1223,57 +1229,16 @@
         <v>1340</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O11" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1526</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="2">
-        <v>8350000</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1340</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" s="2">
-        <v>23</v>
+      <c r="P11" s="2">
+        <v>0.0155</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>23.653</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1291,258 +1256,232 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1">
+        <v>253.52</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
-        <v>253.52</v>
+        <v>145.12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2">
-        <v>145.12</v>
+        <v>750.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2">
-        <v>750.1</v>
+        <v>75.26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2">
-        <v>75.26</v>
+        <v>84.58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2">
+        <v>522.84</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="2">
-        <v>84.58</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2">
+        <v>112.04</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="2">
-        <v>522.84</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
-        <v>112.04</v>
+        <v>88.8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2">
-        <v>88.8</v>
+        <v>750.1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2">
-        <v>750.1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="2">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2">
         <v>1500000</v>
       </c>
     </row>
@@ -1553,53 +1492,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2694</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2694</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +1525,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1617,338 +1533,318 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>29</v>
+      </c>
+      <c r="F1" s="1">
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="2">
-        <v>319</v>
+        <v>440807</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2">
-        <v>440807</v>
+        <v>45486</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="2">
-        <v>45486</v>
+        <v>43557</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="2">
-        <v>43557</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2">
-        <v>7</v>
+      <c r="F6" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1160667</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="2">
-        <v>1160667</v>
+        <v>670956</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="2">
-        <v>670956</v>
+        <v>28891</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="2">
-        <v>28891</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="2">
-        <v>2266</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="2">
-        <v>795</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2">
-        <v>1077</v>
+        <v>66619</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="2">
-        <v>66619</v>
+        <v>2365754</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
+        <v>77</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2">
-        <v>2365754</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
+        <v>78</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>78</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2">
         <v>231081</v>
       </c>
     </row>
@@ -1959,7 +1855,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1967,27 +1863,25 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -1996,43 +1890,43 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -2041,13 +1935,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -2056,79 +1950,64 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>119</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>110</v>
+      <c r="E10" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林鴻池_2012-04-26_財產申報表_tmpdb4b1.xlsx
+++ b/legislator/property/output/normal/林鴻池_2012-04-26_財產申報表_tmpdb4b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="95">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市新店區青潭段楣子寮小段00970094地號</t>
+  </si>
+  <si>
     <t>新北市新店區青潭段楣子寮小段00960002地號</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>臺北市大安區學府段一小段03810000地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>10000分之996</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
     <t>99年09月17曰</t>
   </si>
   <si>
+    <t>貝買</t>
+  </si>
+  <si>
     <t>(買賣(公設D</t>
   </si>
   <si>
@@ -164,40 +173,37 @@
     <t>新北市新店區青潭段楣仔寮小段00780000建號(平台）</t>
   </si>
   <si>
-    <t>全部</t>
+    <t>新北市板橋區海山段03471000</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段03443000建號(本件為停車位）</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段小段02607000建號(陽台）</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段02608000建號(陽台）</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段02640000建號(本件為停車位)</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段03468000建號(陽台（本件3468建號為板橋市海山段2097地號之地上建物取得價額已列於申報書第二項不動產土地第10筆中合併計價)）</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段03480000建號(陽台（本件3480建號為板橋市海山段2097地號之地上建物取得價額已列於申報書第二項不動產土地第11筆合併計價)）</t>
+  </si>
+  <si>
+    <t>新北市板橋區海山段03443000建號(本件為地下層車位）</t>
+  </si>
+  <si>
+    <t>全部.</t>
+  </si>
+  <si>
+    <t>24分之1</t>
   </si>
   <si>
     <t>79年04月25H</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03471000</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03443000建號(本件為停車位）</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段小段02607000建號(陽台）</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段02608000建號(陽台）</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段02640000建號(本件為停車位)</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03468000建號(陽台（本件3468建號為板橋市海山段2097地號之地上建物取得價額已列於申報書第二項不動產土地第10筆中合併計價)）</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03480000建號(陽台（本件3480建號為板橋市海山段2097地號之地上建物取得價額已列於申報書第二項不動產土地第11筆合併計價)）</t>
-  </si>
-  <si>
-    <t>新北市板橋區海山段03443000建號(本件為地下層車位）</t>
-  </si>
-  <si>
-    <t>全部.</t>
-  </si>
-  <si>
-    <t>24分之1</t>
   </si>
   <si>
     <t>84年12月</t>
@@ -655,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -713,531 +719,584 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2">
         <v>1340</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0996</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>13.6452</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1624</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2">
         <v>1340</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.0996</v>
       </c>
       <c r="Q3" s="2">
-        <v>161.7504</v>
+        <v>13.6452</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>29</v>
+        <v>1624</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2">
         <v>1340</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>0.0996</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.8884</v>
+        <v>161.7504</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>559</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2">
         <v>1340</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>0.0996</v>
       </c>
       <c r="Q5" s="2">
-        <v>55.6764</v>
+        <v>2.8884</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>275</v>
+        <v>559</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2">
         <v>1340</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
         <v>0.0996</v>
       </c>
       <c r="Q6" s="2">
-        <v>27.39</v>
+        <v>55.6764</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2">
         <v>1340</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
         <v>0.0996</v>
       </c>
       <c r="Q7" s="2">
-        <v>13.2468</v>
+        <v>27.39</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1526</v>
+        <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M8" s="2">
         <v>1340</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0222</v>
+        <v>0.0996</v>
       </c>
       <c r="Q8" s="2">
-        <v>33.8772</v>
+        <v>13.2468</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>673</v>
+        <v>1526</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2">
         <v>1340</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
-        <v>0.0377</v>
+        <v>0.0222</v>
       </c>
       <c r="Q9" s="2">
-        <v>25.3721</v>
+        <v>33.8772</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>1526</v>
+        <v>673</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="2">
-        <v>11067000</v>
+        <v>44</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M10" s="2">
         <v>1340</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0143</v>
+        <v>0.0377</v>
       </c>
       <c r="Q10" s="2">
-        <v>21.8218</v>
+        <v>25.3721</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>1526</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H11" s="2">
-        <v>8350000</v>
+        <v>11067000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M11" s="2">
         <v>1340</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="2">
+        <v>22</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0143</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>21.8218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1526</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8350000</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="2">
+      <c r="J12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="2">
         <v>23</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P12" s="2">
         <v>0.0155</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q12" s="2">
         <v>23.653</v>
       </c>
     </row>
@@ -1248,241 +1307,537 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1">
-        <v>253.52</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="2">
-        <v>145.12</v>
+        <v>253.52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="2">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>253.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="2">
-        <v>750.1</v>
+        <v>145.12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="2">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>145.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="2">
-        <v>75.26</v>
+        <v>750.1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="2">
+        <v>32</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>31.2541666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="2">
-        <v>84.58</v>
+        <v>75.26</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="2">
+        <v>33</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>75.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="2">
-        <v>522.84</v>
+        <v>84.58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="2">
+        <v>34</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>84.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="2">
-        <v>112.04</v>
+        <v>522.84</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="2">
         <v>35</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="P7" s="2">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>21.785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="2">
-        <v>88.8</v>
+        <v>112.04</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="2">
+        <v>36</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>112.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="2">
+        <v>88.8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="2">
+        <v>37</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2">
         <v>750.1</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="2">
         <v>1500000</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1340</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="2">
+        <v>38</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>31.2541666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1492,30 +1847,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1">
         <v>2694</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2694</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1903,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1533,16 +1911,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1">
         <v>319</v>
@@ -1550,301 +1928,321 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
-        <v>440807</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
-        <v>45486</v>
+        <v>440807</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
-        <v>43557</v>
+        <v>45486</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
-        <v>7</v>
+        <v>43557</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>80</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1160667</v>
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
-        <v>670956</v>
+        <v>1160667</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>28891</v>
+        <v>670956</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
+        <v>71</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>2266</v>
+        <v>28891</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2">
-        <v>795</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2">
-        <v>1077</v>
+        <v>795</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2">
-        <v>66619</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2">
-        <v>2365754</v>
+        <v>66619</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2">
-        <v>7500</v>
+        <v>2365754</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
+        <v>77</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
         <v>78</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="2">
         <v>231081</v>
       </c>
     </row>
@@ -1855,7 +2253,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1863,151 +2261,166 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
+        <v>118</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
         <v>119</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>92</v>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林鴻池_2012-04-26_財產申報表_tmpdb4b1.xlsx
+++ b/legislator/property/output/normal/林鴻池_2012-04-26_財產申報表_tmpdb4b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>8350000(與第11筆土地合併計價）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>國瑞國產客貨車</t>
@@ -1847,38 +1850,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1">
-        <v>2694</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2">
         <v>2694</v>
@@ -1887,13 +1911,34 @@
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1340</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1911,13 +1956,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -1931,13 +1976,13 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1951,13 +1996,13 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -1971,13 +2016,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -1991,13 +2036,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -2011,13 +2056,13 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
@@ -2031,19 +2076,19 @@
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2051,13 +2096,13 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -2071,13 +2116,13 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -2091,13 +2136,13 @@
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -2111,13 +2156,13 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -2131,13 +2176,13 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -2151,13 +2196,13 @@
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -2171,13 +2216,13 @@
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>33</v>
@@ -2191,13 +2236,13 @@
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
@@ -2211,13 +2256,13 @@
         <v>77</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
@@ -2231,13 +2276,13 @@
         <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -2261,10 +2306,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -2276,10 +2321,10 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -2291,10 +2336,10 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -2306,10 +2351,10 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -2321,10 +2366,10 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -2336,10 +2381,10 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
@@ -2351,10 +2396,10 @@
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
@@ -2366,10 +2411,10 @@
         <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>32</v>
@@ -2381,10 +2426,10 @@
         <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -2396,10 +2441,10 @@
         <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -2411,16 +2456,16 @@
         <v>119</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林鴻池_2012-04-26_財產申報表_tmpdb4b1.xlsx
+++ b/legislator/property/output/normal/林鴻池_2012-04-26_財產申報表_tmpdb4b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -224,6 +224,9 @@
     <t>8350000(與第11筆土地合併計價）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -231,6 +234,9 @@
   </si>
   <si>
     <t>93年09月01日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>彰化商業銀行</t>
@@ -1392,7 +1398,7 @@
         <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>47</v>
@@ -1445,7 +1451,7 @@
         <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>47</v>
@@ -1498,7 +1504,7 @@
         <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>47</v>
@@ -1551,7 +1557,7 @@
         <v>45</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>47</v>
@@ -1604,7 +1610,7 @@
         <v>45</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>47</v>
@@ -1657,7 +1663,7 @@
         <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>47</v>
@@ -1710,7 +1716,7 @@
         <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>47</v>
@@ -1763,7 +1769,7 @@
         <v>67</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>47</v>
@@ -1816,7 +1822,7 @@
         <v>1500000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>47</v>
@@ -1861,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1902,7 +1908,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2">
         <v>2694</v>
@@ -1911,7 +1917,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>44</v>
@@ -1920,7 +1926,7 @@
         <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>47</v>
@@ -1956,13 +1962,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -1976,13 +1982,13 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1996,13 +2002,13 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -2016,13 +2022,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -2036,13 +2042,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -2056,13 +2062,13 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
@@ -2076,19 +2082,19 @@
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2096,13 +2102,13 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -2116,13 +2122,13 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -2136,13 +2142,13 @@
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -2156,13 +2162,13 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -2176,13 +2182,13 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -2196,13 +2202,13 @@
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -2216,13 +2222,13 @@
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>33</v>
@@ -2236,13 +2242,13 @@
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
@@ -2256,13 +2262,13 @@
         <v>77</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
@@ -2276,13 +2282,13 @@
         <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -2306,10 +2312,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -2321,10 +2327,10 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -2336,10 +2342,10 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -2351,10 +2357,10 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -2366,10 +2372,10 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -2381,10 +2387,10 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
@@ -2396,10 +2402,10 @@
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
@@ -2411,10 +2417,10 @@
         <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>32</v>
@@ -2426,10 +2432,10 @@
         <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -2441,10 +2447,10 @@
         <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -2456,16 +2462,16 @@
         <v>119</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林鴻池_2012-04-26_財產申報表_tmpdb4b1.xlsx
+++ b/legislator/property/output/normal/林鴻池_2012-04-26_財產申報表_tmpdb4b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -239,43 +239,52 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>彰化商業銀行</t>
   </si>
   <si>
+    <t>玉山商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>臺北縣板橋市農會</t>
+  </si>
+  <si>
+    <t>玉山商業銀行海山簡易型分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行中崙分行</t>
+  </si>
+  <si>
     <t>支票存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>玉山商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>臺北縣板橋市農會</t>
-  </si>
-  <si>
-    <t>玉山商業銀行海山簡易型分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行中崙分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
-    <t>84440</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -1954,13 +1963,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
@@ -1971,24 +1980,45 @@
         <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1996,19 +2026,40 @@
       <c r="F2" s="2">
         <v>319</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -2016,19 +2067,40 @@
       <c r="F3" s="2">
         <v>440807</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -2036,19 +2108,40 @@
       <c r="F4" s="2">
         <v>45486</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -2056,19 +2149,40 @@
       <c r="F5" s="2">
         <v>43557</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
@@ -2076,39 +2190,81 @@
       <c r="F6" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="2">
+        <v>84440</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -2116,19 +2272,40 @@
       <c r="F8" s="2">
         <v>1160667</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -2136,19 +2313,40 @@
       <c r="F9" s="2">
         <v>670956</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -2156,19 +2354,40 @@
       <c r="F10" s="2">
         <v>28891</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -2176,19 +2395,40 @@
       <c r="F11" s="2">
         <v>2266</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -2196,19 +2436,40 @@
       <c r="F12" s="2">
         <v>795</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -2216,19 +2477,40 @@
       <c r="F13" s="2">
         <v>1077</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>33</v>
@@ -2236,19 +2518,40 @@
       <c r="F14" s="2">
         <v>66619</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
@@ -2256,19 +2559,40 @@
       <c r="F15" s="2">
         <v>2365754</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>77</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>31</v>
@@ -2276,25 +2600,67 @@
       <c r="F16" s="2">
         <v>7500</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="2">
         <v>231081</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1340</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2312,10 +2678,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -2327,10 +2693,10 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
@@ -2342,10 +2708,10 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -2357,10 +2723,10 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -2372,10 +2738,10 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -2387,10 +2753,10 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
@@ -2402,10 +2768,10 @@
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
@@ -2417,10 +2783,10 @@
         <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>32</v>
@@ -2432,10 +2798,10 @@
         <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -2447,10 +2813,10 @@
         <v>118</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -2462,16 +2828,16 @@
         <v>119</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林鴻池_2012-04-26_財產申報表_tmpdb4b1.xlsx
+++ b/legislator/property/output/normal/林鴻池_2012-04-26_財產申報表_tmpdb4b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -287,18 +287,21 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>全球人壽</t>
+  </si>
+  <si>
     <t>南山好鑫動養老保險</t>
   </si>
   <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>全球人壽</t>
-  </si>
-  <si>
     <t>新二十年期增值分紅養老壽險</t>
   </si>
   <si>
@@ -320,7 +323,7 @@
     <t>金彩306增額終身壽險</t>
   </si>
   <si>
-    <t>被保險人有3人</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2670,70 +2673,150 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>113</v>
       </c>
@@ -2741,14 +2824,34 @@
         <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>114</v>
       </c>
@@ -2756,14 +2859,34 @@
         <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>115</v>
       </c>
@@ -2771,14 +2894,34 @@
         <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>116</v>
       </c>
@@ -2786,14 +2929,34 @@
         <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>117</v>
       </c>
@@ -2801,14 +2964,34 @@
         <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>118</v>
       </c>
@@ -2816,14 +2999,34 @@
         <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>119</v>
       </c>
@@ -2831,13 +3034,31 @@
         <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1340</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="2">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
